--- a/results/sakt_loop_assistments17.xlsx
+++ b/results/sakt_loop_assistments17.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,47 +477,47 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>optimizer</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>lr</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>grad_clip</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>num_epochs</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>repeat</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>exp_status</t>
-        </is>
-      </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>stride</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>result1</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>result2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>result3</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>batch_size.1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
         <v>50</v>
@@ -559,37 +559,43 @@
       <c r="I2" t="n">
         <v>100</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
         <v>0.001</v>
       </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
       <c r="L2" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3</v>
+      </c>
       <c r="O2" t="n">
-        <v>0.736894080239578</v>
+        <v>50</v>
       </c>
       <c r="P2" t="n">
-        <v>0.7355631799100967</v>
+        <v>0.7620544965682279</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.736890234730509</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>0.7669335576849765</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.7673440603063558</v>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -598,10 +604,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D3" t="n">
         <v>50</v>
@@ -621,37 +627,43 @@
       <c r="I3" t="n">
         <v>100</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>0.001</v>
       </c>
-      <c r="K3" t="n">
-        <v>10</v>
-      </c>
       <c r="L3" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
       <c r="O3" t="n">
-        <v>0.7388617202078064</v>
+        <v>200</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7398243229074625</v>
+        <v>0.7583505113525676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7405847952129804</v>
-      </c>
-      <c r="R3" t="inlineStr"/>
+        <v>0.7616470480553288</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.7603918727185073</v>
+      </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -660,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>200</v>
@@ -683,37 +695,43 @@
       <c r="I4" t="n">
         <v>100</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.001</v>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L4" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3</v>
+      </c>
       <c r="O4" t="n">
-        <v>0.740569634575888</v>
+        <v>50</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7409328213735409</v>
+        <v>0.7624344859341481</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7421183073900991</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
+        <v>0.7655561665864457</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.7663754049895876</v>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -722,13 +740,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
@@ -745,37 +763,43 @@
       <c r="I5" t="n">
         <v>100</v>
       </c>
-      <c r="J5" t="n">
-        <v>0.001</v>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K5" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L5" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3</v>
+      </c>
       <c r="O5" t="n">
-        <v>0.7338131177977119</v>
+        <v>200</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7345657440527114</v>
+        <v>0.7573708706237003</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.734179030694159</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
+        <v>0.7614617582962322</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.7601854310121285</v>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -784,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -807,37 +831,43 @@
       <c r="I6" t="n">
         <v>100</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>0.001</v>
       </c>
-      <c r="K6" t="n">
-        <v>10</v>
-      </c>
       <c r="L6" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3</v>
+      </c>
       <c r="O6" t="n">
-        <v>0.7382249026116003</v>
+        <v>50</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7397293003548343</v>
+        <v>0.7616277567907931</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7374284402596624</v>
-      </c>
-      <c r="R6" t="inlineStr"/>
+        <v>0.768953998681414</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.7693150555047812</v>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -846,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -869,37 +899,43 @@
       <c r="I7" t="n">
         <v>100</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>0.001</v>
       </c>
-      <c r="K7" t="n">
-        <v>10</v>
-      </c>
       <c r="L7" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3</v>
+      </c>
       <c r="O7" t="n">
-        <v>0.7393935930025178</v>
+        <v>200</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7411643909752792</v>
+        <v>0.7581412858294569</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7383645536031287</v>
-      </c>
-      <c r="R7" t="inlineStr"/>
+        <v>0.764645020104705</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.7635794875538157</v>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -908,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D8" t="n">
         <v>50</v>
@@ -931,37 +967,43 @@
       <c r="I8" t="n">
         <v>100</v>
       </c>
-      <c r="J8" t="n">
-        <v>0.001</v>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K8" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L8" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3</v>
+      </c>
       <c r="O8" t="n">
-        <v>0.7495410133697266</v>
+        <v>50</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7505655610662568</v>
+        <v>0.7645236386348957</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7478263813044453</v>
-      </c>
-      <c r="R8" t="inlineStr"/>
+        <v>0.7688052023679968</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.7690162606268403</v>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -970,10 +1012,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D9" t="n">
         <v>50</v>
@@ -993,37 +1035,43 @@
       <c r="I9" t="n">
         <v>100</v>
       </c>
-      <c r="J9" t="n">
-        <v>0.001</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L9" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
       <c r="O9" t="n">
-        <v>0.7512743995285246</v>
+        <v>200</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7529417195355719</v>
+        <v>0.7593054307415781</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7518869810038653</v>
-      </c>
-      <c r="R9" t="inlineStr"/>
+        <v>0.7634468737968149</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7637060801120313</v>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>200</v>
@@ -1055,37 +1103,43 @@
       <c r="I10" t="n">
         <v>100</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>0.001</v>
       </c>
-      <c r="K10" t="n">
-        <v>10</v>
-      </c>
       <c r="L10" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3</v>
+      </c>
       <c r="O10" t="n">
-        <v>0.7517549790217009</v>
+        <v>50</v>
       </c>
       <c r="P10" t="n">
-        <v>0.7547304236012042</v>
+        <v>0.7602190403260063</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7535734155914866</v>
-      </c>
-      <c r="R10" t="inlineStr"/>
+        <v>0.7674254127096706</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.7706565379856644</v>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -1094,13 +1148,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -1117,37 +1171,43 @@
       <c r="I11" t="n">
         <v>100</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>0.001</v>
       </c>
-      <c r="K11" t="n">
-        <v>10</v>
-      </c>
       <c r="L11" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
       <c r="O11" t="n">
-        <v>0.7452504449323419</v>
+        <v>200</v>
       </c>
       <c r="P11" t="n">
-        <v>0.7470399544603237</v>
+        <v>0.7601943411084169</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7477541518654086</v>
-      </c>
-      <c r="R11" t="inlineStr"/>
+        <v>0.7636924161993147</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.7639354481362934</v>
+      </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -1156,13 +1216,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
@@ -1179,37 +1239,43 @@
       <c r="I12" t="n">
         <v>100</v>
       </c>
-      <c r="J12" t="n">
-        <v>0.001</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L12" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
       <c r="O12" t="n">
-        <v>0.7493604996081616</v>
+        <v>50</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7507855592511483</v>
+        <v>0.7633158539021254</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7508429787145683</v>
-      </c>
-      <c r="R12" t="inlineStr"/>
+        <v>0.7676117475105677</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.7680501700810531</v>
+      </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -1218,13 +1284,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>200</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -1241,37 +1307,43 @@
       <c r="I13" t="n">
         <v>100</v>
       </c>
-      <c r="J13" t="n">
-        <v>0.001</v>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L13" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3</v>
+      </c>
       <c r="O13" t="n">
-        <v>0.7518903427648381</v>
+        <v>200</v>
       </c>
       <c r="P13" t="n">
-        <v>0.7520377777939327</v>
+        <v>0.7595060777082351</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.749097316285823</v>
-      </c>
-      <c r="R13" t="inlineStr"/>
+        <v>0.7606796684756038</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.7637420177945731</v>
+      </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>runs/sakt</t>
+          <t>runs/sakt/assistments17/</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>save/sakt</t>
+          <t>save/sakt/assistments17/</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D14" t="n">
         <v>50</v>
@@ -1303,39 +1375,31 @@
       <c r="I14" t="n">
         <v>100</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>0.001</v>
       </c>
-      <c r="K14" t="n">
-        <v>10</v>
-      </c>
       <c r="L14" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
       <c r="O14" t="n">
-        <v>0.7501738328955875</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.7529242607125899</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.7506470552050574</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1345,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D15" t="n">
         <v>50</v>
@@ -1365,39 +1429,31 @@
       <c r="I15" t="n">
         <v>100</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>0.001</v>
       </c>
-      <c r="K15" t="n">
-        <v>10</v>
-      </c>
       <c r="L15" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
       <c r="O15" t="n">
-        <v>0.7547887308971188</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.7558629906825739</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.7548788191838647</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1407,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D16" t="n">
         <v>50</v>
@@ -1427,39 +1483,31 @@
       <c r="I16" t="n">
         <v>100</v>
       </c>
-      <c r="J16" t="n">
-        <v>0.001</v>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L16" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3</v>
+      </c>
       <c r="O16" t="n">
-        <v>0.7535058784266125</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.7575760008796943</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.7566925791886513</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1469,10 +1517,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
@@ -1489,52 +1537,44 @@
       <c r="I17" t="n">
         <v>100</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.001</v>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L17" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
       <c r="O17" t="n">
-        <v>0.7499171063335951</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.7503102038490943</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.7489329401889454</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -1551,52 +1591,44 @@
       <c r="I18" t="n">
         <v>100</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>0.001</v>
       </c>
-      <c r="K18" t="n">
-        <v>10</v>
-      </c>
       <c r="L18" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
       <c r="O18" t="n">
-        <v>0.7523548611387264</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.7546848744994228</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.751643857753697</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
@@ -1613,39 +1645,31 @@
       <c r="I19" t="n">
         <v>100</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>0.001</v>
       </c>
-      <c r="K19" t="n">
-        <v>10</v>
-      </c>
       <c r="L19" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
       <c r="O19" t="n">
-        <v>0.75422139828438</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.7554833347392348</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.7511239277475161</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1655,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D20" t="n">
         <v>50</v>
@@ -1675,39 +1699,31 @@
       <c r="I20" t="n">
         <v>100</v>
       </c>
-      <c r="J20" t="n">
-        <v>0.001</v>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L20" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
       <c r="O20" t="n">
-        <v>0.7500140055723121</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.7535357145994772</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.7525505220639813</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1717,7 +1733,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D21" t="n">
         <v>50</v>
@@ -1737,49 +1753,41 @@
       <c r="I21" t="n">
         <v>100</v>
       </c>
-      <c r="J21" t="n">
-        <v>0.001</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L21" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
       <c r="O21" t="n">
-        <v>0.7540404100707783</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.7554800831777493</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.7560874765106527</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D22" t="n">
         <v>50</v>
@@ -1799,52 +1807,44 @@
       <c r="I22" t="n">
         <v>100</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>0.001</v>
       </c>
-      <c r="K22" t="n">
-        <v>10</v>
-      </c>
       <c r="L22" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
       <c r="O22" t="n">
-        <v>0.7532968714197301</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.757650649353391</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.7583377434505243</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E23" t="n">
         <v>5</v>
@@ -1861,52 +1861,44 @@
       <c r="I23" t="n">
         <v>100</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>adam</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>0.001</v>
       </c>
-      <c r="K23" t="n">
-        <v>10</v>
-      </c>
       <c r="L23" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3</v>
+      </c>
       <c r="O23" t="n">
-        <v>0.7500835425078065</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.7522619706196376</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.7483565907517441</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
         <v>5</v>
@@ -1923,52 +1915,44 @@
       <c r="I24" t="n">
         <v>100</v>
       </c>
-      <c r="J24" t="n">
-        <v>0.001</v>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L24" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
       <c r="O24" t="n">
-        <v>0.7540430200276678</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.7557789469524332</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.7505431528565873</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>5</v>
@@ -1985,377 +1969,31 @@
       <c r="I25" t="n">
         <v>100</v>
       </c>
-      <c r="J25" t="n">
-        <v>0.001</v>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>noam</t>
+        </is>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>0.003</v>
       </c>
       <c r="L25" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3</v>
+      </c>
       <c r="O25" t="n">
-        <v>0.7545613962387292</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.7577394977341068</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.7522447969738659</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" t="n">
-        <v>50</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>10</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>100</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10</v>
-      </c>
-      <c r="L26" t="n">
-        <v>300</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>0.7537015434115388</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.7569526801024815</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.7558185392806502</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>200</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>100</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K27" t="n">
-        <v>10</v>
-      </c>
-      <c r="L27" t="n">
-        <v>300</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>0.7508873002070059</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.7611526179633854</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.7619733993358561</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>400</v>
-      </c>
-      <c r="D28" t="n">
-        <v>50</v>
-      </c>
-      <c r="E28" t="n">
-        <v>5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>100</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10</v>
-      </c>
-      <c r="L28" t="n">
-        <v>300</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>100</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>10</v>
-      </c>
-      <c r="L29" t="n">
-        <v>300</v>
-      </c>
-      <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>0.7554153791340227</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.7576648406115449</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.7504260578114677</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>runs/sakt</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>save/sakt</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>200</v>
-      </c>
-      <c r="D30" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>10</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>100</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K30" t="n">
-        <v>10</v>
-      </c>
-      <c r="L30" t="n">
-        <v>300</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" t="n">
-        <v>400</v>
-      </c>
-      <c r="D31" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" t="n">
-        <v>10</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>100</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K31" t="n">
-        <v>10</v>
-      </c>
-      <c r="L31" t="n">
-        <v>300</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
